--- a/medicine/Pharmacie/Clairance_hépatique/Clairance_hépatique.xlsx
+++ b/medicine/Pharmacie/Clairance_hépatique/Clairance_hépatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clairance_h%C3%A9patique</t>
+          <t>Clairance_hépatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clairance hépatique est un concept en pharmacologie qui quantifie le métabolisme hépatique d'une substance (aliment, médicament, toxique...). 
 Lorsqu'une substance est absorbée oralement, une fraction plus ou moins importante ne parvient pas à rejoindre la circulation systémique, à cause des biotransformations hépatiques qu'elle subit. La clairance hépatique est le pourcentage de médicament dégradé au cours de son passage hépatique (et qui n'assure donc pas sa fonction prévue).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clairance_h%C3%A9patique</t>
+          <t>Clairance_hépatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,11 @@
           <t>Biotranformations hépatiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été absorbés au niveau de l'intestin, tous les nutriments et autres substances ingérées passent par le système-porte hépatique. Les molécules médicamenteuses peuvent être métabolisées par le foie. Les modifications apportées aux molécules se classent dans deux catégories, les phases I et II.
-phase I
-Les réactions de phase I sont dites cataboliques. On retrouve les procédés d'oxydation, d'hydrolyse et de réduction notamment. Ces modifications n'affectent pas l'intégralité des molécules médicamenteuses évidemment (bien que le pourcentage de médicament métabolisé varie énormément selon le type de celui-ci), mais celles qui sont affectées deviennent pour la plupart plus réactives chimiquement et certaines pourraient devenir toxiques.
-phase II
-Les réactions de phase II sont dites anaboliques, ou synthétiques, et impliquent une conjugaison, c'est-à-dire l'attachement d'un groupe substituant, tel un méthyle, un sulfate ou un acétyle. Ces réactions inhibent bien souvent l'effet du médicament ; le métabolite résultant est alors inactif et moins liposoluble. Le foie peut soit excréter les métabolites dans la bile, soit les laisser rejoindre la circulation systémique, où peu à peu ils seront filtrés au niveau des tubules rénaux et évacués dans l'urine.
 </t>
         </is>
       </c>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clairance_h%C3%A9patique</t>
+          <t>Clairance_hépatique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +555,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biotranformations hépatiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>phase I</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les réactions de phase I sont dites cataboliques. On retrouve les procédés d'oxydation, d'hydrolyse et de réduction notamment. Ces modifications n'affectent pas l'intégralité des molécules médicamenteuses évidemment (bien que le pourcentage de médicament métabolisé varie énormément selon le type de celui-ci), mais celles qui sont affectées deviennent pour la plupart plus réactives chimiquement et certaines pourraient devenir toxiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clairance_hépatique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clairance_h%C3%A9patique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biotranformations hépatiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>phase II</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les réactions de phase II sont dites anaboliques, ou synthétiques, et impliquent une conjugaison, c'est-à-dire l'attachement d'un groupe substituant, tel un méthyle, un sulfate ou un acétyle. Ces réactions inhibent bien souvent l'effet du médicament ; le métabolite résultant est alors inactif et moins liposoluble. Le foie peut soit excréter les métabolites dans la bile, soit les laisser rejoindre la circulation systémique, où peu à peu ils seront filtrés au niveau des tubules rénaux et évacués dans l'urine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clairance_hépatique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clairance_h%C3%A9patique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Modifications de la clairance hépatique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Certains facteurs influencent ces réactions. Par conséquent, le médicament prescrit oralement ne sera pas dégradé comme il aurait dû au niveau du foie et la dose fournie risque alors d'être beaucoup trop forte ou au contraire trop faible. Ainsi des effets secondaires risquent d'être observés, potentiellement dommageables.
 En cas d'insuffisance hépatique le foie le métabolisme hépatique (comme toutes ses autres fonctions) est altéré et il faut en tenir compte dans la posologie des médicaments.
